--- a/data/trans_dic/P16A20_2023-Nacimiento-trans_dic.xlsx
+++ b/data/trans_dic/P16A20_2023-Nacimiento-trans_dic.xlsx
@@ -40,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -53,34 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -513,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,21 +501,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas 2 semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas dos semanas (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -552,85 +515,31 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -642,15 +551,6 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -664,39 +564,12 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0</v>
+        <v>0.01417195531863974</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0</v>
+        <v>0.08323593421068791</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>0.01417195531863974</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>0.08323593421068791</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5" t="n">
         <v>0.04971904821776602</v>
       </c>
     </row>
@@ -707,22 +580,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="n">
+      <c r="C5" s="5" t="n">
         <v>0.01039504856956604</v>
       </c>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="n">
+      <c r="D5" s="5" t="n">
         <v>0.07594716978413378</v>
       </c>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>0.04474434004166471</v>
       </c>
     </row>
@@ -733,22 +597,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="n">
+      <c r="C6" s="5" t="n">
         <v>0.01885394621015651</v>
       </c>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="n">
+      <c r="D6" s="5" t="n">
         <v>0.09129887666054823</v>
       </c>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>0.05402962862926167</v>
       </c>
     </row>
@@ -764,39 +619,12 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0</v>
+        <v>0.005398906960823265</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0</v>
+        <v>0.0783401550554725</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>0.005398906960823265</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>0.0783401550554725</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
         <v>0.04167074901187603</v>
       </c>
     </row>
@@ -807,22 +635,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="n">
+      <c r="C8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="n">
+      <c r="D8" s="5" t="n">
         <v>0.05307619076444382</v>
       </c>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>0.02798913375745486</v>
       </c>
     </row>
@@ -833,22 +652,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="n">
+      <c r="C9" s="5" t="n">
         <v>0.01892637454598084</v>
       </c>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="n">
+      <c r="D9" s="5" t="n">
         <v>0.1154260897782408</v>
       </c>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>0.05989895291908159</v>
       </c>
     </row>
@@ -864,39 +674,12 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0</v>
+        <v>0.01343086689325715</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0</v>
+        <v>0.08284801258771385</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0.01343086689325715</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>0.08284801258771385</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
         <v>0.04906081722684402</v>
       </c>
     </row>
@@ -907,22 +690,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="n">
+      <c r="C11" s="5" t="n">
         <v>0.009711821266863353</v>
       </c>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="n">
+      <c r="D11" s="5" t="n">
         <v>0.07532264870148196</v>
       </c>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>0.04456232867040087</v>
       </c>
     </row>
@@ -933,22 +707,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="n">
+      <c r="C12" s="5" t="n">
         <v>0.01812346380896648</v>
       </c>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="n">
+      <c r="D12" s="5" t="n">
         <v>0.09118021018563459</v>
       </c>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>0.05352286785323393</v>
       </c>
     </row>
@@ -960,14 +725,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="4">
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -979,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -995,21 +757,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas 2 semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas dos semanas (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1018,85 +771,31 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -1108,15 +807,6 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1130,39 +820,12 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>49</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>454</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6" t="n">
         <v>503</v>
       </c>
     </row>
@@ -1174,39 +837,12 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0</v>
+        <v>45794</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0</v>
+        <v>285253</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>45794</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>285253</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6" t="n">
         <v>331046</v>
       </c>
     </row>
@@ -1217,22 +853,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr"/>
-      <c r="D6" s="6" t="inlineStr"/>
-      <c r="E6" s="6" t="inlineStr"/>
-      <c r="F6" s="6" t="n">
+      <c r="C6" s="6" t="n">
         <v>33590</v>
       </c>
-      <c r="G6" s="6" t="inlineStr"/>
-      <c r="H6" s="6" t="inlineStr"/>
-      <c r="I6" s="6" t="inlineStr"/>
-      <c r="J6" s="6" t="n">
+      <c r="D6" s="6" t="n">
         <v>260274</v>
       </c>
-      <c r="K6" s="6" t="inlineStr"/>
-      <c r="L6" s="6" t="inlineStr"/>
-      <c r="M6" s="6" t="inlineStr"/>
-      <c r="N6" s="6" t="n">
+      <c r="E6" s="6" t="n">
         <v>297923</v>
       </c>
     </row>
@@ -1243,22 +870,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr"/>
-      <c r="D7" s="6" t="inlineStr"/>
-      <c r="E7" s="6" t="inlineStr"/>
-      <c r="F7" s="6" t="n">
+      <c r="C7" s="6" t="n">
         <v>60923</v>
       </c>
-      <c r="G7" s="6" t="inlineStr"/>
-      <c r="H7" s="6" t="inlineStr"/>
-      <c r="I7" s="6" t="inlineStr"/>
-      <c r="J7" s="6" t="n">
+      <c r="D7" s="6" t="n">
         <v>312885</v>
       </c>
-      <c r="K7" s="6" t="inlineStr"/>
-      <c r="L7" s="6" t="inlineStr"/>
-      <c r="M7" s="6" t="inlineStr"/>
-      <c r="N7" s="6" t="n">
+      <c r="E7" s="6" t="n">
         <v>359748</v>
       </c>
     </row>
@@ -1274,39 +892,12 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1318,39 +909,12 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0</v>
+        <v>1610</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0</v>
+        <v>23103</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>1610</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>23103</v>
-      </c>
-      <c r="K9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6" t="n">
         <v>24713</v>
       </c>
     </row>
@@ -1361,22 +925,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr"/>
-      <c r="D10" s="6" t="inlineStr"/>
-      <c r="E10" s="6" t="inlineStr"/>
-      <c r="F10" s="6" t="n">
+      <c r="C10" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="6" t="inlineStr"/>
-      <c r="H10" s="6" t="inlineStr"/>
-      <c r="I10" s="6" t="inlineStr"/>
-      <c r="J10" s="6" t="n">
+      <c r="D10" s="6" t="n">
         <v>15653</v>
       </c>
-      <c r="K10" s="6" t="inlineStr"/>
-      <c r="L10" s="6" t="inlineStr"/>
-      <c r="M10" s="6" t="inlineStr"/>
-      <c r="N10" s="6" t="n">
+      <c r="E10" s="6" t="n">
         <v>16599</v>
       </c>
     </row>
@@ -1387,22 +942,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr"/>
-      <c r="D11" s="6" t="inlineStr"/>
-      <c r="E11" s="6" t="inlineStr"/>
-      <c r="F11" s="6" t="n">
+      <c r="C11" s="6" t="n">
         <v>5643</v>
       </c>
-      <c r="G11" s="6" t="inlineStr"/>
-      <c r="H11" s="6" t="inlineStr"/>
-      <c r="I11" s="6" t="inlineStr"/>
-      <c r="J11" s="6" t="n">
+      <c r="D11" s="6" t="n">
         <v>34041</v>
       </c>
-      <c r="K11" s="6" t="inlineStr"/>
-      <c r="L11" s="6" t="inlineStr"/>
-      <c r="M11" s="6" t="inlineStr"/>
-      <c r="N11" s="6" t="n">
+      <c r="E11" s="6" t="n">
         <v>35523</v>
       </c>
     </row>
@@ -1418,39 +964,12 @@
         </is>
       </c>
       <c r="C12" s="6" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>51</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6" t="n">
-        <v>484</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6" t="n">
         <v>535</v>
       </c>
     </row>
@@ -1462,39 +981,12 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0</v>
+        <v>47404</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0</v>
+        <v>308356</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>47404</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6" t="n">
-        <v>308356</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6" t="n">
         <v>355760</v>
       </c>
     </row>
@@ -1505,22 +997,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr"/>
-      <c r="D14" s="6" t="inlineStr"/>
-      <c r="E14" s="6" t="inlineStr"/>
-      <c r="F14" s="6" t="n">
+      <c r="C14" s="6" t="n">
         <v>34277</v>
       </c>
-      <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="inlineStr"/>
-      <c r="I14" s="6" t="inlineStr"/>
-      <c r="J14" s="6" t="n">
+      <c r="D14" s="6" t="n">
         <v>280347</v>
       </c>
-      <c r="K14" s="6" t="inlineStr"/>
-      <c r="L14" s="6" t="inlineStr"/>
-      <c r="M14" s="6" t="inlineStr"/>
-      <c r="N14" s="6" t="n">
+      <c r="E14" s="6" t="n">
         <v>323139</v>
       </c>
     </row>
@@ -1531,22 +1014,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr"/>
-      <c r="D15" s="6" t="inlineStr"/>
-      <c r="E15" s="6" t="inlineStr"/>
-      <c r="F15" s="6" t="n">
+      <c r="C15" s="6" t="n">
         <v>63966</v>
       </c>
-      <c r="G15" s="6" t="inlineStr"/>
-      <c r="H15" s="6" t="inlineStr"/>
-      <c r="I15" s="6" t="inlineStr"/>
-      <c r="J15" s="6" t="n">
+      <c r="D15" s="6" t="n">
         <v>339368</v>
       </c>
-      <c r="K15" s="6" t="inlineStr"/>
-      <c r="L15" s="6" t="inlineStr"/>
-      <c r="M15" s="6" t="inlineStr"/>
-      <c r="N15" s="6" t="n">
+      <c r="E15" s="6" t="n">
         <v>388116</v>
       </c>
     </row>
@@ -1558,14 +1032,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="4">
+    <mergeCell ref="A8:A11"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
